--- a/biology/Zoologie/Carpophage_des_Moluques/Carpophage_des_Moluques.xlsx
+++ b/biology/Zoologie/Carpophage_des_Moluques/Carpophage_des_Moluques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ducula basilica
 Le Carpophage des Moluques (Ducula basilica (Bonaparte, 1854)) est une espèce d'oiseau appartenant à la famille  des  Columbidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure 36 à 42 cm de longueur. Il ne présente qu'un dimorphisme très faible puisque la femelle est simplement un peu plus sombre que le mâle.
 La tête, les côtés du cou et la poitrine sont rose pâle. L'arrière du cou est gris bleuâtre. Le manteau, le dos, les couvertures alaires et le croupion sont vert émeraude à doré avec seulement quelques reflets rougeâtres. Les rémiges primaires et les rectrices sont bleu noirâtre, ces dernières présentent une bande terminale grise. Le ventre, les flancs et les sous-caudales sont roux doré lumineux.
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit sur les Moluques.
 </t>
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peuple les forêts primaires du niveau de la mer jusqu'à 1 400 m d'altitude.
 </t>
@@ -606,7 +624,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par deux sous-espèces :
 Ducula basilica basilica (Bonaparte, 1854) ;
